--- a/data/trans_dic/P3A_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01957604358824117</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06067541850172023</v>
+        <v>0.06067541850172024</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.02033214255526434</v>
@@ -685,7 +685,7 @@
         <v>0.02864629125594334</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.07034479457244021</v>
+        <v>0.07034479457244019</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02135621564923899</v>
@@ -697,7 +697,7 @@
         <v>0.02410141680927479</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06565929277518619</v>
+        <v>0.0656592927751862</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01384404435269437</v>
+        <v>0.01295758306126412</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03025507284876474</v>
+        <v>0.02984256679842427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01115371299131813</v>
+        <v>0.01118552001548681</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04581011351259136</v>
+        <v>0.04720858111359306</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01139091437326647</v>
+        <v>0.01166502624170476</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02597383056664368</v>
+        <v>0.02585433789773238</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01601861462578975</v>
+        <v>0.01800026571296069</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05727590271777633</v>
+        <v>0.05767761056984524</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01512330755837394</v>
+        <v>0.01421119002190604</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03210076398384055</v>
+        <v>0.03187853377692899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0163614488067308</v>
+        <v>0.01675292298670092</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05653740822774528</v>
+        <v>0.05682411876799313</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03652024921401215</v>
+        <v>0.03484790764250406</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05974480968862406</v>
+        <v>0.06117266638047709</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03236554311016972</v>
+        <v>0.03190503149905419</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07738457286944639</v>
+        <v>0.07940608649046575</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03331098160791983</v>
+        <v>0.03249760712523522</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05773048474804351</v>
+        <v>0.05846812534816237</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04501037384808057</v>
+        <v>0.04746698180243759</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08317998838086427</v>
+        <v>0.08543013100273429</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02995956250788187</v>
+        <v>0.02961874238457039</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05368171146778459</v>
+        <v>0.05385979496106771</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03321450871741637</v>
+        <v>0.03480650657626858</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07783630353458292</v>
+        <v>0.07676551588362214</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02137003244987696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03774731988221327</v>
+        <v>0.03774731988221326</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.01640260811270819</v>
@@ -821,7 +821,7 @@
         <v>0.02445871954641896</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05044372841854999</v>
+        <v>0.05044372841855</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02626756901358682</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0249069718340298</v>
+        <v>0.02530321150436583</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02949688530583734</v>
+        <v>0.03043145465556547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0135024321051761</v>
+        <v>0.01344530069236614</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02696925952913607</v>
+        <v>0.02503791338117662</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00908794398435619</v>
+        <v>0.009649198080669146</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02958567185586348</v>
+        <v>0.0305734580085506</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01610332396955174</v>
+        <v>0.01551493350957243</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04150980002705171</v>
+        <v>0.04155969154962113</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01928908240654387</v>
+        <v>0.01973262475135448</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03306168563186641</v>
+        <v>0.03244558761741414</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01691729140973984</v>
+        <v>0.01692064493486008</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03746341300537857</v>
+        <v>0.03610156302540615</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05154956994244454</v>
+        <v>0.05110275806540061</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05575981523232093</v>
+        <v>0.05661355319915492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0317714610906585</v>
+        <v>0.03288419768204354</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0566328954097849</v>
+        <v>0.05301289718667562</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02611214908609409</v>
+        <v>0.02591723148738154</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05651493722244211</v>
+        <v>0.05626585965746701</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03862095162854002</v>
+        <v>0.03747111126480803</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0609571451003673</v>
+        <v>0.0620079942141934</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03542075105665537</v>
+        <v>0.03484046976189784</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0515770388888162</v>
+        <v>0.05139295898995717</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03208740293782824</v>
+        <v>0.03086766526124584</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05489896714953994</v>
+        <v>0.05496874751676784</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02262524748932163</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03893923373916207</v>
+        <v>0.03893923373916205</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0335212962551593</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02319963482410561</v>
+        <v>0.02405823342528925</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01232150015919946</v>
+        <v>0.01216255186260501</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01267372584803572</v>
+        <v>0.01320778511275978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02656302275004406</v>
+        <v>0.02699132173535844</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02182574573573988</v>
+        <v>0.0224552540379271</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02376375748718116</v>
+        <v>0.02329876225012458</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01526286348543001</v>
+        <v>0.01447886438751185</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03721728606200829</v>
+        <v>0.03863499307795727</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02586619496220058</v>
+        <v>0.0255902720930946</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02053551831960503</v>
+        <v>0.02093930363652922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01682040516477329</v>
+        <v>0.01630535398208404</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03563528668986864</v>
+        <v>0.03553877224495162</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05362384783722025</v>
+        <v>0.05269299850870947</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03666273191870976</v>
+        <v>0.03615183904611494</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03749186206687928</v>
+        <v>0.03710002375918876</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05656663372276604</v>
+        <v>0.05465510015901259</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05049578506797538</v>
+        <v>0.05108673827866083</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05317154665883417</v>
+        <v>0.05415954790378618</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04301562432399317</v>
+        <v>0.03910319411686952</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06309235705291934</v>
+        <v>0.06396885743768106</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04598569510705824</v>
+        <v>0.04576673936703438</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04004924738870428</v>
+        <v>0.0413302848318876</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03309653273375079</v>
+        <v>0.0330628474160227</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05457952052612528</v>
+        <v>0.05462822745253541</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03216504640892421</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.04919424956663981</v>
+        <v>0.04919424956663982</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05162576489201072</v>
@@ -1093,7 +1093,7 @@
         <v>0.04076165154729073</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06471915610884009</v>
+        <v>0.06471915610884008</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05605273985762409</v>
@@ -1105,7 +1105,7 @@
         <v>0.03670125875012806</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0574294817234989</v>
+        <v>0.05742948172349888</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04665826803606828</v>
+        <v>0.04689937904746866</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0319375831273659</v>
+        <v>0.030659661562074</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02217283234365693</v>
+        <v>0.02146600966210747</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03688889494842593</v>
+        <v>0.0379302570940328</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03881238794649505</v>
+        <v>0.03964241398191982</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04522957740741327</v>
+        <v>0.04568026851547449</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02944925517626142</v>
+        <v>0.03018362709139701</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05340963031282588</v>
+        <v>0.05340996600340284</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04550062528535501</v>
+        <v>0.04605815457538274</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04261294994558076</v>
+        <v>0.04308196803892427</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02861122267439985</v>
+        <v>0.02916094021583241</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04833321640600075</v>
+        <v>0.04929750529343038</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07880550738049243</v>
+        <v>0.07816312005670714</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0598318341189619</v>
+        <v>0.05676005250834077</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04473725144739589</v>
+        <v>0.04560752708314705</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06364618532585256</v>
+        <v>0.06525422336753998</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06612528625091668</v>
+        <v>0.06576489544750988</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07733177664297514</v>
+        <v>0.07693280369358166</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05642640228813746</v>
+        <v>0.05709850789974102</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07690924462115047</v>
+        <v>0.078136165511831</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06699941002006489</v>
+        <v>0.0660859430725015</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06292630185028979</v>
+        <v>0.06370861149784952</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0478296525619113</v>
+        <v>0.04639245513512916</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06693945688079272</v>
+        <v>0.06761053593397873</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02426891732838432</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.04570643588270919</v>
+        <v>0.0457064358827092</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03149511080554573</v>
@@ -1241,7 +1241,7 @@
         <v>0.02730344537369913</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.05225792688475092</v>
+        <v>0.05225792688475093</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03373922073660175</v>
+        <v>0.03357690454450727</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03210093829164247</v>
+        <v>0.0321006012277919</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01911958379310378</v>
+        <v>0.01901544782454449</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03897463266911583</v>
+        <v>0.03904740531888323</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02607260104770297</v>
+        <v>0.02626150237286513</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03941228291114478</v>
+        <v>0.03797890219518407</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02453076623677669</v>
+        <v>0.02455421156159478</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05224539931051662</v>
+        <v>0.05239625899166379</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03112132117160688</v>
+        <v>0.03177189526909677</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03720784673973179</v>
+        <v>0.03749390034319158</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02340260379666241</v>
+        <v>0.02328922408246972</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04797310342621788</v>
+        <v>0.04755884274873769</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04749003906989657</v>
+        <v>0.04808914735968157</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04538938216964468</v>
+        <v>0.04554216572735008</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02995826607784161</v>
+        <v>0.02973837431043755</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05357200172962805</v>
+        <v>0.05368903033136836</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03817697637882118</v>
+        <v>0.03850361494860776</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05357967054583497</v>
+        <v>0.05322361371421071</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0375594011003101</v>
+        <v>0.03701468724247858</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06448458174256537</v>
+        <v>0.06525699361820327</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04036551442742366</v>
+        <v>0.0406845147327413</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04799993880928343</v>
+        <v>0.04739734904559726</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03179842274910863</v>
+        <v>0.0312266099719661</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.05710912335292595</v>
+        <v>0.05702969311273928</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9608</v>
+        <v>8993</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>21284</v>
+        <v>20993</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7527</v>
+        <v>7548</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>31619</v>
+        <v>32585</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7828</v>
+        <v>8016</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18105</v>
+        <v>18022</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10763</v>
+        <v>12094</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>42051</v>
+        <v>42346</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>20888</v>
+        <v>19629</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>44958</v>
+        <v>44646</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>22034</v>
+        <v>22561</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>80532</v>
+        <v>80941</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>25345</v>
+        <v>24185</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>42029</v>
+        <v>43033</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21840</v>
+        <v>21530</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>53413</v>
+        <v>54808</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22891</v>
+        <v>22332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>40241</v>
+        <v>40755</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30243</v>
+        <v>31893</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>61069</v>
+        <v>62721</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>41380</v>
+        <v>40910</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>75182</v>
+        <v>75432</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>44730</v>
+        <v>46874</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>110870</v>
+        <v>109345</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23956</v>
+        <v>24337</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29995</v>
+        <v>30945</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13792</v>
+        <v>13734</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>28289</v>
+        <v>26263</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>8801</v>
+        <v>9344</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>30538</v>
+        <v>31557</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16779</v>
+        <v>16166</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>44477</v>
+        <v>44530</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>37232</v>
+        <v>38088</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>67746</v>
+        <v>66483</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>34907</v>
+        <v>34914</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>79437</v>
+        <v>76549</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49580</v>
+        <v>49151</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>56701</v>
+        <v>57570</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32453</v>
+        <v>33590</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>59403</v>
+        <v>55606</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>25287</v>
+        <v>25098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>58334</v>
+        <v>58077</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>40241</v>
+        <v>39043</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>65314</v>
+        <v>66440</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>68369</v>
+        <v>67249</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>105685</v>
+        <v>105308</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>66210</v>
+        <v>63693</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>116407</v>
+        <v>116555</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15741</v>
+        <v>16324</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9335</v>
+        <v>9215</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9577</v>
+        <v>9981</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21332</v>
+        <v>21676</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14851</v>
+        <v>15280</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>18421</v>
+        <v>18061</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>11951</v>
+        <v>11337</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30230</v>
+        <v>31382</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>35151</v>
+        <v>34776</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>31477</v>
+        <v>32096</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25881</v>
+        <v>25089</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>57563</v>
+        <v>57407</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>36384</v>
+        <v>35753</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27777</v>
+        <v>27389</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28332</v>
+        <v>28036</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>45427</v>
+        <v>43892</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34360</v>
+        <v>34762</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>41217</v>
+        <v>41983</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33680</v>
+        <v>30617</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>51247</v>
+        <v>51959</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>62492</v>
+        <v>62195</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>61387</v>
+        <v>63351</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>50925</v>
+        <v>50873</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>88164</v>
+        <v>88243</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>43921</v>
+        <v>44148</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30268</v>
+        <v>29057</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20695</v>
+        <v>20036</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>36500</v>
+        <v>37530</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>40311</v>
+        <v>41173</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>47577</v>
+        <v>48051</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>30708</v>
+        <v>31474</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>59701</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>90089</v>
+        <v>91193</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>85211</v>
+        <v>86148</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>56539</v>
+        <v>57625</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>101850</v>
+        <v>103882</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>74183</v>
+        <v>73578</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>56705</v>
+        <v>53794</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41756</v>
+        <v>42568</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>62975</v>
+        <v>64566</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>68679</v>
+        <v>68304</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>81345</v>
+        <v>80926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>58838</v>
+        <v>59539</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>85969</v>
+        <v>87340</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>132656</v>
+        <v>130847</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>125830</v>
+        <v>127394</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>94516</v>
+        <v>91676</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>141058</v>
+        <v>142472</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>110518</v>
+        <v>109987</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>109969</v>
+        <v>109968</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>64726</v>
+        <v>64373</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>137646</v>
+        <v>137903</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>87986</v>
+        <v>88623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>140162</v>
+        <v>135065</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>86829</v>
+        <v>86912</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>195174</v>
+        <v>195737</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>206966</v>
+        <v>211293</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>259786</v>
+        <v>261783</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>162060</v>
+        <v>161275</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>348639</v>
+        <v>345628</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>155561</v>
+        <v>157524</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>155491</v>
+        <v>156015</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>101418</v>
+        <v>100674</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>189199</v>
+        <v>189612</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>128834</v>
+        <v>129936</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>190546</v>
+        <v>189280</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>132945</v>
+        <v>131016</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>240896</v>
+        <v>243781</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>268443</v>
+        <v>270565</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>335137</v>
+        <v>330930</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>220201</v>
+        <v>216241</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>415034</v>
+        <v>414456</v>
       </c>
     </row>
     <row r="24">
